--- a/src/test/resources/TestScenarioData.xlsx
+++ b/src/test/resources/TestScenarioData.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="SanityData" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="SanityTestData" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="UserTestdata" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="NegativeTestData" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t xml:space="preserve">Input Value</t>
   </si>
@@ -120,6 +121,18 @@
   </si>
   <si>
     <t xml:space="preserve">69 6263 47 366253MY NAME IS DONALD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQAMAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOITAMOTUA</t>
   </si>
 </sst>
 </file>
@@ -375,8 +388,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -504,4 +517,73 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.01"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>23468</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>426272</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2886628466</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resources/TestScenarioData.xlsx
+++ b/src/test/resources/TestScenarioData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SanityTestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t xml:space="preserve">Input Value</t>
   </si>
@@ -120,7 +120,10 @@
     <t xml:space="preserve">HI HELO</t>
   </si>
   <si>
-    <t xml:space="preserve">69 6263 47 366253MY NAME IS DONALD</t>
+    <t xml:space="preserve">69 6263 47 366253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY NAME IS DONALD</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -142,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -163,6 +166,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,6 +225,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,7 +252,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -388,8 +400,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -506,6 +518,9 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -526,8 +541,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -547,10 +562,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,7 +573,7 @@
         <v>23468</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,7 +581,7 @@
         <v>426272</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,7 +589,7 @@
         <v>2886628466</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
